--- a/cv/data/pubs.xlsx
+++ b/cv/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85E30A8-262C-41A0-A13C-C060DC45C5C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD75FD17-40EE-46CA-9767-A50B0F1380C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
@@ -177,9 +177,6 @@
     <t>Carry Trade and Negative Interest Rates in Switzerland</t>
   </si>
   <si>
-    <t>https://bttomio.github.io/files/Carry%20trade%20and%20negative%20interest%20rates%20in%20Switzerland.pdf</t>
-  </si>
-  <si>
     <t>Eastern Economic Association</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>February, 2020</t>
+  </si>
+  <si>
+    <t>https://bitly.com/carrytradetomiovallet</t>
   </si>
 </sst>
 </file>
@@ -584,9 +584,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -871,7 +871,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>49</v>
@@ -884,19 +884,19 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="S7" s="1"/>
     </row>
@@ -911,10 +911,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -925,13 +925,13 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="1" t="b">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -964,13 +964,13 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="1" t="b">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1003,13 +1003,13 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="1" t="b">
         <v>0</v>

--- a/cv/data/pubs.xlsx
+++ b/cv/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD75FD17-40EE-46CA-9767-A50B0F1380C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85E30A8-262C-41A0-A13C-C060DC45C5C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
@@ -177,6 +177,9 @@
     <t>Carry Trade and Negative Interest Rates in Switzerland</t>
   </si>
   <si>
+    <t>https://bttomio.github.io/files/Carry%20trade%20and%20negative%20interest%20rates%20in%20Switzerland.pdf</t>
+  </si>
+  <si>
     <t>Eastern Economic Association</t>
   </si>
   <si>
@@ -214,9 +217,6 @@
   </si>
   <si>
     <t>February, 2020</t>
-  </si>
-  <si>
-    <t>https://bitly.com/carrytradetomiovallet</t>
   </si>
 </sst>
 </file>
@@ -584,9 +584,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -871,7 +871,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>49</v>
@@ -884,19 +884,19 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="S7" s="1"/>
     </row>
@@ -911,10 +911,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -925,13 +925,13 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="1" t="b">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -964,13 +964,13 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="1" t="b">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1003,13 +1003,13 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="1" t="b">
         <v>0</v>

--- a/cv/data/pubs.xlsx
+++ b/cv/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD75FD17-40EE-46CA-9767-A50B0F1380C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F2B544-9F40-44DA-86E0-BCE02F9B635D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>authors</t>
   </si>
@@ -99,9 +99,6 @@
     <t>cran_link</t>
   </si>
   <si>
-    <t>Tomio, B. T.</t>
-  </si>
-  <si>
     <t>Understanding the Brazilian Demand Regime - A Kaleckian Approach</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Institutional Distance and Brazilian Outward Foreign Direct Investment</t>
   </si>
   <si>
-    <t>Amal, M., and Tomio, B. T.</t>
-  </si>
-  <si>
     <t>M@n@gement</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>Determinants of Foreign Direct Investment in Latin America</t>
   </si>
   <si>
-    <t>Amal, M., Tomio, B. T., and Raboch H.</t>
-  </si>
-  <si>
     <t>Revista de Globalizacion, Competitividad y Gobernabilidad</t>
   </si>
   <si>
@@ -156,67 +147,88 @@
     <t>2-3</t>
   </si>
   <si>
+    <t>https://link.springer.com/chapter/10.1057/9781137446350_3#citeas</t>
+  </si>
+  <si>
+    <t>Carry Trade and Negative Interest Rates in Switzerland</t>
+  </si>
+  <si>
+    <t>Eastern Economic Association</t>
+  </si>
+  <si>
+    <t>23rd Conference of the Forum for Macroeconomics and Macroeconomic Policies (FMM)</t>
+  </si>
+  <si>
+    <t>Carry trade in developed and developing countries: A Granger-causality analysis with the Toda-Yamamoto approach</t>
+  </si>
+  <si>
+    <t>May, 2019</t>
+  </si>
+  <si>
+    <t>11th Annual Ph.D. Student Conference - Post-Keynesian Economics Society (PKES)</t>
+  </si>
+  <si>
+    <t>February, 2019</t>
+  </si>
+  <si>
+    <t>YSI North America Convening</t>
+  </si>
+  <si>
+    <t>October, 2019</t>
+  </si>
+  <si>
+    <t>February, 2020</t>
+  </si>
+  <si>
+    <t>https://bitly.com/carrytradetomiovallet</t>
+  </si>
+  <si>
+    <t>Tomio, B. T..</t>
+  </si>
+  <si>
+    <t>Amal, M., and Tomio, B. T..</t>
+  </si>
+  <si>
+    <t>Amal, M., Tomio, B. T., and Raboch H..</t>
+  </si>
+  <si>
+    <t>Amal, M., Raboch H., and Tomio, B. T..</t>
+  </si>
+  <si>
+    <t>Tomio, B. T., and Vallet, G..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boston (MA), United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Berlin, Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> London, United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los Angeles, USA</t>
+  </si>
+  <si>
+    <t>https://bttomio.github.io/slides/carrytradetomiovallet.html</t>
+  </si>
+  <si>
+    <t>http://bit.ly/bttomiocttyapaper</t>
+  </si>
+  <si>
+    <t>http://bit.ly/bttomiocttyaslides</t>
+  </si>
+  <si>
     <t>Institutional Determinants of Outward Foreign Direct Investment from Emerging Economies: A Home-Country Perspective</t>
   </si>
   <si>
-    <t>https://link.springer.com/chapter/10.1057/9781137446350_3#citeas</t>
-  </si>
-  <si>
-    <t>Institutional Impacts on Firm Internationalization</t>
-  </si>
-  <si>
-    <t>Palgrave Macmillan, London</t>
-  </si>
-  <si>
-    <t>Amal, M., Raboch H., and Tomio, B. T.</t>
-  </si>
-  <si>
-    <t>Tomio, B. T., and Vallet, G.</t>
-  </si>
-  <si>
-    <t>Carry Trade and Negative Interest Rates in Switzerland</t>
-  </si>
-  <si>
-    <t>Eastern Economic Association</t>
-  </si>
-  <si>
-    <t>23rd Conference of the Forum for Macroeconomics and Macroeconomic Policies (FMM)</t>
-  </si>
-  <si>
-    <t>Berlin, Germany</t>
-  </si>
-  <si>
-    <t>Boston (MA), United States</t>
-  </si>
-  <si>
-    <t>Carry trade in developed and developing countries: A Granger-causality analysis with the Toda-Yamamoto approach</t>
-  </si>
-  <si>
-    <t>May, 2019</t>
-  </si>
-  <si>
-    <t>11th Annual Ph.D. Student Conference - Post-Keynesian Economics Society (PKES)</t>
-  </si>
-  <si>
-    <t>February, 2019</t>
-  </si>
-  <si>
-    <t>YSI North America Convening</t>
-  </si>
-  <si>
-    <t>London, United Kingdom</t>
-  </si>
-  <si>
-    <t>Los Angeles, USA</t>
-  </si>
-  <si>
-    <t>October, 2019</t>
-  </si>
-  <si>
-    <t>February, 2020</t>
-  </si>
-  <si>
-    <t>https://bitly.com/carrytradetomiovallet</t>
+    <t xml:space="preserve">Institutional Impacts on Firm Internationalization, </t>
+  </si>
+  <si>
+    <t>73-94</t>
+  </si>
+  <si>
+    <t>Palgrave Macmillan, London..</t>
   </si>
 </sst>
 </file>
@@ -584,9 +596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -673,16 +685,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1">
         <v>2020</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -706,16 +718,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1">
         <v>2015</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="G3" s="1">
         <v>18</v>
@@ -724,13 +736,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -749,16 +761,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1">
         <v>2010</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1">
         <v>4</v>
@@ -767,11 +779,11 @@
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -790,29 +802,31 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1">
         <v>2009</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1">
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -831,13 +845,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1">
         <v>2015</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -845,13 +859,13 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -868,13 +882,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -884,21 +898,24 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="O7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="S7" s="1"/>
+      <c r="T7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
@@ -908,13 +925,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -925,19 +942,24 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="O8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="R8" s="1"/>
+      <c r="R8" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="S8" s="1"/>
+      <c r="T8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
@@ -947,13 +969,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -964,7 +986,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O9" s="1" t="b">
         <v>0</v>
@@ -986,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1003,7 +1025,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="O10" s="1" t="b">
         <v>0</v>

--- a/cv/data/pubs.xlsx
+++ b/cv/data/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F2B544-9F40-44DA-86E0-BCE02F9B635D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E9B859-CB48-4B54-9B23-637B4921C04E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>authors</t>
   </si>
@@ -186,18 +186,6 @@
     <t>Tomio, B. T..</t>
   </si>
   <si>
-    <t>Amal, M., and Tomio, B. T..</t>
-  </si>
-  <si>
-    <t>Amal, M., Tomio, B. T., and Raboch H..</t>
-  </si>
-  <si>
-    <t>Amal, M., Raboch H., and Tomio, B. T..</t>
-  </si>
-  <si>
-    <t>Tomio, B. T., and Vallet, G..</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Boston (MA), United States</t>
   </si>
   <si>
@@ -229,6 +217,27 @@
   </si>
   <si>
     <t>Palgrave Macmillan, London..</t>
+  </si>
+  <si>
+    <t>Amal, M. and Tomio, B. T..</t>
+  </si>
+  <si>
+    <t>Amal, M., Tomio, B. T. and Raboch H..</t>
+  </si>
+  <si>
+    <t>Amal, M., Raboch H. and Tomio, B. T..</t>
+  </si>
+  <si>
+    <t>Tomio, B. T. and Vallet, G..</t>
+  </si>
+  <si>
+    <t>2020, forthcoming</t>
+  </si>
+  <si>
+    <t>wp</t>
+  </si>
+  <si>
+    <t>Revise and resubimit: Economics Bulletin</t>
   </si>
 </sst>
 </file>
@@ -298,7 +307,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -594,14 +603,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="5" max="5" width="146.5" bestFit="1" customWidth="1"/>
@@ -687,8 +696,8 @@
       <c r="C2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="1">
-        <v>2020</v>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
@@ -718,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1">
         <v>2015</v>
@@ -761,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1">
         <v>2010</v>
@@ -802,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1">
         <v>2009</v>
@@ -820,7 +829,7 @@
         <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>38</v>
@@ -845,13 +854,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1">
         <v>2015</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -862,10 +871,10 @@
         <v>40</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -882,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>50</v>
@@ -904,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="1" t="b">
         <v>1</v>
@@ -914,7 +923,7 @@
       </c>
       <c r="S7" s="1"/>
       <c r="T7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -948,17 +957,17 @@
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -992,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="1" t="b">
         <v>0</v>
@@ -1031,13 +1040,64 @@
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="T11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12">
+        <v>2020</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K5">

--- a/cv/data/pubs.xlsx
+++ b/cv/data/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E9B859-CB48-4B54-9B23-637B4921C04E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6165312-CAD8-49B3-BE84-FCB5779AD803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>authors</t>
   </si>
@@ -238,13 +238,19 @@
   </si>
   <si>
     <t>Revise and resubimit: Economics Bulletin</t>
+  </si>
+  <si>
+    <t>https://bitly.com/tomiovalletpdf</t>
+  </si>
+  <si>
+    <t>Carry trade and negative policy rates in Switzerland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,6 +267,14 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Times Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -280,17 +294,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -605,9 +622,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1089,10 +1106,10 @@
         <v>2020</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>51</v>
+        <v>72</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" t="s">
@@ -1103,6 +1120,9 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K5">
     <sortCondition ref="B3:B5"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="R12" r:id="rId1" xr:uid="{89948F92-2D5A-4A89-8778-F12C51BFEA89}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cv/data/pubs.xlsx
+++ b/cv/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6165312-CAD8-49B3-BE84-FCB5779AD803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FD12BE-97F6-4B68-AAF3-A31CD3F8CCD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>authors</t>
   </si>
@@ -231,9 +231,6 @@
     <t>Tomio, B. T. and Vallet, G..</t>
   </si>
   <si>
-    <t>2020, forthcoming</t>
-  </si>
-  <si>
     <t>wp</t>
   </si>
   <si>
@@ -244,6 +241,15 @@
   </si>
   <si>
     <t>Carry trade and negative policy rates in Switzerland</t>
+  </si>
+  <si>
+    <t>10.4337/roke.2020.02.08</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4337/roke.2020.02.08</t>
+  </si>
+  <si>
+    <t>287–302</t>
   </si>
 </sst>
 </file>
@@ -622,9 +628,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -713,8 +719,8 @@
       <c r="C2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>68</v>
+      <c r="D2" s="1">
+        <v>2020</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
@@ -722,11 +728,21 @@
       <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="G2" s="1">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1067,7 +1083,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1082,7 +1098,7 @@
         <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>58</v>
@@ -1094,7 +1110,7 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -1106,10 +1122,10 @@
         <v>2020</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" t="s">

--- a/cv/data/pubs.xlsx
+++ b/cv/data/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FD12BE-97F6-4B68-AAF3-A31CD3F8CCD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE19DD6-0148-4A8C-A31E-3F238363EECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
+    <workbookView xWindow="384" yWindow="0" windowWidth="18540" windowHeight="12504" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
   <si>
     <t>authors</t>
   </si>
@@ -99,18 +99,12 @@
     <t>cran_link</t>
   </si>
   <si>
-    <t>Understanding the Brazilian Demand Regime - A Kaleckian Approach</t>
-  </si>
-  <si>
     <t>Review of Keynesian Economics</t>
   </si>
   <si>
     <t>Institutional Distance and Brazilian Outward Foreign Direct Investment</t>
   </si>
   <si>
-    <t>M@n@gement</t>
-  </si>
-  <si>
     <t>10.3917/mana.181.0078</t>
   </si>
   <si>
@@ -150,18 +144,12 @@
     <t>https://link.springer.com/chapter/10.1057/9781137446350_3#citeas</t>
   </si>
   <si>
-    <t>Carry Trade and Negative Interest Rates in Switzerland</t>
-  </si>
-  <si>
     <t>Eastern Economic Association</t>
   </si>
   <si>
     <t>23rd Conference of the Forum for Macroeconomics and Macroeconomic Policies (FMM)</t>
   </si>
   <si>
-    <t>Carry trade in developed and developing countries: A Granger-causality analysis with the Toda-Yamamoto approach</t>
-  </si>
-  <si>
     <t>May, 2019</t>
   </si>
   <si>
@@ -240,9 +228,6 @@
     <t>https://bitly.com/tomiovalletpdf</t>
   </si>
   <si>
-    <t>Carry trade and negative policy rates in Switzerland</t>
-  </si>
-  <si>
     <t>10.4337/roke.2020.02.08</t>
   </si>
   <si>
@@ -250,6 +235,18 @@
   </si>
   <si>
     <t>287–302</t>
+  </si>
+  <si>
+    <t>Carry Trade and Negative Policy Rates in Switzerland</t>
+  </si>
+  <si>
+    <t>Carry Trade in Developed and Developing Countries: A Granger-Causality Analysis with the Toda-Yamamoto Approach</t>
+  </si>
+  <si>
+    <t>Understanding the Brazilian Demand Regime: A Kaleckian Approach</t>
+  </si>
+  <si>
+    <t>M&lt;!-- --&gt;@n&lt;!-- --&gt;@gement</t>
   </si>
 </sst>
 </file>
@@ -304,13 +301,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -628,9 +626,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -717,16 +715,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1">
         <v>2020</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="G2" s="1">
         <v>8</v>
@@ -735,13 +733,13 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -760,16 +758,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
         <v>2015</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="G3" s="1">
         <v>18</v>
@@ -778,13 +776,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -803,16 +801,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1">
         <v>2010</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1">
         <v>4</v>
@@ -821,11 +819,11 @@
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -844,31 +842,31 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1">
         <v>2009</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1">
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -887,13 +885,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1">
         <v>2015</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -901,13 +899,13 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -924,13 +922,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -940,23 +938,23 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -967,13 +965,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -984,23 +982,23 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1011,13 +1009,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1028,13 +1026,13 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="1" t="b">
         <v>0</v>
@@ -1050,13 +1048,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1067,13 +1065,13 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="1" t="b">
         <v>0</v>
@@ -1083,53 +1081,53 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>2020</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>2020</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1138,6 +1136,7 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="R12" r:id="rId1" xr:uid="{89948F92-2D5A-4A89-8778-F12C51BFEA89}"/>
+    <hyperlink ref="F3" r:id="rId2" display="M@n@gement" xr:uid="{40A1A71E-DE8A-426E-950A-263E2429C7A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cv/data/pubs.xlsx
+++ b/cv/data/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE19DD6-0148-4A8C-A31E-3F238363EECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2D0FFE-4DF2-46DD-A120-D69FD0300E76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="0" windowWidth="18540" windowHeight="12504" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <t>authors</t>
   </si>
@@ -222,9 +222,6 @@
     <t>wp</t>
   </si>
   <si>
-    <t>Revise and resubimit: Economics Bulletin</t>
-  </si>
-  <si>
     <t>https://bitly.com/tomiovalletpdf</t>
   </si>
   <si>
@@ -247,13 +244,22 @@
   </si>
   <si>
     <t>M&lt;!-- --&gt;@n&lt;!-- --&gt;@gement</t>
+  </si>
+  <si>
+    <t>Economics Bulletin</t>
+  </si>
+  <si>
+    <t>2154-2164</t>
+  </si>
+  <si>
+    <t>http://www.accessecon.com/Pubs/EB/2020/Volume40/EB-20-V40-I3-P188.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,6 +285,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -301,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -309,6 +321,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -626,9 +639,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -717,38 +730,32 @@
       <c r="C2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>2020</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="G2">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
+      <c r="T2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
@@ -758,31 +765,31 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>73</v>
+        <v>2020</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G3" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -801,29 +808,31 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>2015</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="G4" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="K4" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -842,31 +851,29 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -879,34 +886,40 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="K6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -916,89 +929,82 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2015</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="K7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1006,16 +1012,16 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1026,35 +1032,40 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="R9" s="1"/>
+      <c r="R9" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="S9" s="1"/>
+      <c r="T9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1065,13 +1076,13 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="1" t="b">
         <v>0</v>
@@ -1081,37 +1092,49 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D11">
-        <v>2020</v>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>63</v>
@@ -1120,10 +1143,10 @@
         <v>2020</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" t="s">
@@ -1131,13 +1154,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K5">
-    <sortCondition ref="B3:B5"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:K6">
+    <sortCondition ref="B4:B6"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="R12" r:id="rId1" xr:uid="{89948F92-2D5A-4A89-8778-F12C51BFEA89}"/>
-    <hyperlink ref="F3" r:id="rId2" display="M@n@gement" xr:uid="{40A1A71E-DE8A-426E-950A-263E2429C7A8}"/>
+    <hyperlink ref="F4" r:id="rId2" display="M@n@gement" xr:uid="{40A1A71E-DE8A-426E-950A-263E2429C7A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/cv/data/pubs.xlsx
+++ b/cv/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2D0FFE-4DF2-46DD-A120-D69FD0300E76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D5ED69-5171-4989-B47C-1B784D2365D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
@@ -231,9 +231,6 @@
     <t>https://doi.org/10.4337/roke.2020.02.08</t>
   </si>
   <si>
-    <t>287–302</t>
-  </si>
-  <si>
     <t>Carry Trade and Negative Policy Rates in Switzerland</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>http://www.accessecon.com/Pubs/EB/2020/Volume40/EB-20-V40-I3-P188.pdf</t>
+  </si>
+  <si>
+    <t>287-302</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R5" sqref="R5"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -734,10 +734,10 @@
         <v>2020</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -746,10 +746,10 @@
         <v>3</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" t="s">
         <v>74</v>
-      </c>
-      <c r="K2" t="s">
-        <v>75</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -771,7 +771,7 @@
         <v>2020</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -783,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>66</v>
@@ -817,7 +817,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="1">
         <v>18</v>
@@ -978,7 +978,7 @@
         <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1021,7 +1021,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1065,7 +1065,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1104,7 +1104,7 @@
         <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1143,7 +1143,7 @@
         <v>2020</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>65</v>

--- a/cv/data/pubs.xlsx
+++ b/cv/data/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D5ED69-5171-4989-B47C-1B784D2365D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485A5128-294A-4F1E-9145-C93207587D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
+    <workbookView xWindow="1092" yWindow="1128" windowWidth="21600" windowHeight="11436" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
   <si>
     <t>authors</t>
   </si>
@@ -150,24 +150,12 @@
     <t>23rd Conference of the Forum for Macroeconomics and Macroeconomic Policies (FMM)</t>
   </si>
   <si>
-    <t>May, 2019</t>
-  </si>
-  <si>
     <t>11th Annual Ph.D. Student Conference - Post-Keynesian Economics Society (PKES)</t>
   </si>
   <si>
-    <t>February, 2019</t>
-  </si>
-  <si>
     <t>YSI North America Convening</t>
   </si>
   <si>
-    <t>October, 2019</t>
-  </si>
-  <si>
-    <t>February, 2020</t>
-  </si>
-  <si>
     <t>https://bitly.com/carrytradetomiovallet</t>
   </si>
   <si>
@@ -253,6 +241,30 @@
   </si>
   <si>
     <t>287-302</t>
+  </si>
+  <si>
+    <t>February 2020</t>
+  </si>
+  <si>
+    <t>October 2019</t>
+  </si>
+  <si>
+    <t>May 2019</t>
+  </si>
+  <si>
+    <t>February 2019</t>
+  </si>
+  <si>
+    <t>Vallet, G., Tomio, B. T. and Gevorkyan, A. V..</t>
+  </si>
+  <si>
+    <t>The Political Economy of Carry Trade</t>
+  </si>
+  <si>
+    <t>Carry Trade and the Sorcerer's Apprentice Scenario in Brazil, Mexico, and Russia</t>
+  </si>
+  <si>
+    <t>Tomio, B. T., Vallet, G., and Gevorkyan, A. V..</t>
   </si>
 </sst>
 </file>
@@ -637,11 +649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -728,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>2020</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -746,15 +758,15 @@
         <v>3</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -765,13 +777,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1">
         <v>2020</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -783,13 +795,13 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -808,7 +820,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1">
         <v>2015</v>
@@ -817,7 +829,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1">
         <v>18</v>
@@ -851,7 +863,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1">
         <v>2010</v>
@@ -892,7 +904,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1">
         <v>2009</v>
@@ -910,7 +922,7 @@
         <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>36</v>
@@ -935,13 +947,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1">
         <v>2015</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -952,10 +964,10 @@
         <v>38</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -972,13 +984,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -994,17 +1006,17 @@
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1015,13 +1027,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1038,17 +1050,17 @@
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1059,13 +1071,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1076,13 +1088,13 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="1" t="b">
         <v>0</v>
@@ -1098,13 +1110,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1115,13 +1127,13 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="1" t="b">
         <v>0</v>
@@ -1131,26 +1143,60 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D12">
         <v>2020</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14">
+        <v>2020</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/cv/data/pubs.xlsx
+++ b/cv/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485A5128-294A-4F1E-9145-C93207587D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BDE6C0-7563-4886-92F4-37796452225E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1092" yWindow="1128" windowWidth="21600" windowHeight="11436" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>authors</t>
   </si>
@@ -114,18 +114,6 @@
     <t>78-101</t>
   </si>
   <si>
-    <t>Determinants of Foreign Direct Investment in Latin America</t>
-  </si>
-  <si>
-    <t>Revista de Globalizacion, Competitividad y Gobernabilidad</t>
-  </si>
-  <si>
-    <t>116-133</t>
-  </si>
-  <si>
-    <t>https://dialnet.unirioja.es/servlet/articulo?codigo=3720149</t>
-  </si>
-  <si>
     <t>Strategies and Determinants of Foreign Direct Investment (FDI) from Developing Countries: Case Study of Latin America</t>
   </si>
   <si>
@@ -196,9 +184,6 @@
   </si>
   <si>
     <t>Amal, M. and Tomio, B. T..</t>
-  </si>
-  <si>
-    <t>Amal, M., Tomio, B. T. and Raboch H..</t>
   </si>
   <si>
     <t>Amal, M., Raboch H. and Tomio, B. T..</t>
@@ -649,11 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -740,16 +725,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>2020</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -758,15 +743,15 @@
         <v>3</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -777,13 +762,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1">
         <v>2020</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -795,13 +780,13 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -820,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1">
         <v>2015</v>
@@ -829,7 +814,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1">
         <v>18</v>
@@ -863,10 +848,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>29</v>
@@ -875,17 +860,19 @@
         <v>30</v>
       </c>
       <c r="G5" s="1">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -898,40 +885,34 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="1">
-        <v>10</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -941,82 +922,89 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2015</v>
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S7" s="1"/>
+      <c r="T7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1024,16 +1012,16 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1044,40 +1032,35 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1088,13 +1071,13 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="1" t="b">
         <v>0</v>
@@ -1104,107 +1087,68 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="S11" s="1"/>
+      <c r="T11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D12">
         <v>2020</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="S12" s="1"/>
-      <c r="T12" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14">
-        <v>2020</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:K6">
-    <sortCondition ref="B4:B6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:K5">
+    <sortCondition ref="B4:B5"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="R12" r:id="rId1" xr:uid="{89948F92-2D5A-4A89-8778-F12C51BFEA89}"/>
+    <hyperlink ref="R11" r:id="rId1" xr:uid="{89948F92-2D5A-4A89-8778-F12C51BFEA89}"/>
     <hyperlink ref="F4" r:id="rId2" display="M@n@gement" xr:uid="{40A1A71E-DE8A-426E-950A-263E2429C7A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cv/data/pubs.xlsx
+++ b/cv/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BDE6C0-7563-4886-92F4-37796452225E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F4DE24-3F29-402D-B36F-94E9EEF5705B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1092" yWindow="1128" windowWidth="21600" windowHeight="11436" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>authors</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>Tomio, B. T., Vallet, G., and Gevorkyan, A. V..</t>
+  </si>
+  <si>
+    <t>Karamoko, H. and Tomio, B. T..</t>
+  </si>
+  <si>
+    <t>Analyse de la Synchronisation des Cycles: Le Cas l'Union Économique et Monétaire Ouest Africain (UEMOA)</t>
   </si>
 </sst>
 </file>
@@ -634,11 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1143,6 +1149,23 @@
         <v>72</v>
       </c>
     </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14">
+        <v>2020</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:K5">
     <sortCondition ref="B4:B5"/>

--- a/cv/data/pubs.xlsx
+++ b/cv/data/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F4DE24-3F29-402D-B36F-94E9EEF5705B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36294376-F3AA-4D81-89E7-9A3631C001D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1092" yWindow="1128" windowWidth="21600" windowHeight="11436" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
   <si>
     <t>authors</t>
   </si>
@@ -249,13 +249,28 @@
     <t>Carry Trade and the Sorcerer's Apprentice Scenario in Brazil, Mexico, and Russia</t>
   </si>
   <si>
-    <t>Tomio, B. T., Vallet, G., and Gevorkyan, A. V..</t>
-  </si>
-  <si>
     <t>Karamoko, H. and Tomio, B. T..</t>
   </si>
   <si>
-    <t>Analyse de la Synchronisation des Cycles: Le Cas l'Union Économique et Monétaire Ouest Africain (UEMOA)</t>
+    <t>Tomio, B. T., Vallet, G. and Gevorkyan, A. V..</t>
+  </si>
+  <si>
+    <t>Analyse de la Synchronisation des Cycles: Le Cas de l'Union Économique et Monétaire Ouest Africaine (UEMOA)</t>
+  </si>
+  <si>
+    <t>Amal, M., Tomio, B. T. and Raboch H..</t>
+  </si>
+  <si>
+    <t>Determinants of Foreign Direct Investment in Latin America</t>
+  </si>
+  <si>
+    <t>Revista de Globalizacion, Competitividad y Gobernabilidad</t>
+  </si>
+  <si>
+    <t>116-133</t>
+  </si>
+  <si>
+    <t>https://dialnet.unirioja.es/servlet/articulo?codigo=3720149</t>
   </si>
 </sst>
 </file>
@@ -640,11 +655,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -854,31 +869,29 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="G5" s="1">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -891,34 +904,40 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="K6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -928,89 +947,82 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2015</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="K7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1018,13 +1030,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>60</v>
@@ -1038,32 +1050,37 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="R9" s="1"/>
+      <c r="R9" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="S9" s="1"/>
+      <c r="T9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>60</v>
@@ -1077,13 +1094,13 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="1" t="b">
         <v>0</v>
@@ -1093,43 +1110,65 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11">
-        <v>2020</v>
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>56</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>2020</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1137,16 +1176,16 @@
         <v>55</v>
       </c>
       <c r="B13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1154,15 +1193,32 @@
         <v>55</v>
       </c>
       <c r="B14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D14">
         <v>2020</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1171,7 +1227,7 @@
     <sortCondition ref="B4:B5"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="R11" r:id="rId1" xr:uid="{89948F92-2D5A-4A89-8778-F12C51BFEA89}"/>
+    <hyperlink ref="R12" r:id="rId1" xr:uid="{89948F92-2D5A-4A89-8778-F12C51BFEA89}"/>
     <hyperlink ref="F4" r:id="rId2" display="M@n@gement" xr:uid="{40A1A71E-DE8A-426E-950A-263E2429C7A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cv/data/pubs.xlsx
+++ b/cv/data/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36294376-F3AA-4D81-89E7-9A3631C001D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF7BF89-4593-44F7-9A8C-6AC1686284BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
   <si>
     <t>authors</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>YSI North America Convening</t>
-  </si>
-  <si>
-    <t>https://bitly.com/carrytradetomiovallet</t>
   </si>
   <si>
     <t>Tomio, B. T..</t>
@@ -331,12 +328,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -657,9 +653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -746,16 +742,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>2020</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -763,16 +759,16 @@
       <c r="H2">
         <v>3</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" t="s">
         <v>64</v>
-      </c>
-      <c r="K2" t="s">
-        <v>65</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -783,13 +779,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1">
         <v>2020</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -801,13 +797,13 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -826,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1">
         <v>2015</v>
@@ -834,8 +830,8 @@
       <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>62</v>
+      <c r="F4" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="G4" s="1">
         <v>18</v>
@@ -869,16 +865,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1">
         <v>2010</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="G5" s="1">
         <v>4</v>
@@ -887,11 +883,11 @@
         <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -910,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1">
         <v>2009</v>
@@ -928,7 +924,7 @@
         <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>32</v>
@@ -953,13 +949,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1">
         <v>2015</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -970,10 +966,10 @@
         <v>34</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -990,13 +986,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1012,17 +1008,17 @@
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1033,13 +1029,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1056,17 +1052,17 @@
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1077,13 +1073,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1100,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="1" t="b">
         <v>0</v>
@@ -1116,13 +1112,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1139,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="1" t="b">
         <v>0</v>
@@ -1149,77 +1145,77 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <v>2020</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14">
         <v>2020</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <v>2020</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1229,8 +1225,9 @@
   <hyperlinks>
     <hyperlink ref="R12" r:id="rId1" xr:uid="{89948F92-2D5A-4A89-8778-F12C51BFEA89}"/>
     <hyperlink ref="F4" r:id="rId2" display="M@n@gement" xr:uid="{40A1A71E-DE8A-426E-950A-263E2429C7A8}"/>
+    <hyperlink ref="R8" r:id="rId3" xr:uid="{67993599-3535-4FC3-B9A7-3060E55BDB5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/cv/data/pubs.xlsx
+++ b/cv/data/pubs.xlsx
@@ -164,7 +164,7 @@
     <t>Monetary Policy, Financialization and Inequality: carry trade and the rentier/worker conflict</t>
   </si>
   <si>
-    <t>Better Off Alone? Euro Carry Trade and Reluctant</t>
+    <t>Better Off Alone? Euro Carry Trade and Reluctant Europeans</t>
   </si>
   <si>
     <t>Economics Bulletin</t>

--- a/cv/data/pubs.xlsx
+++ b/cv/data/pubs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
   <si>
     <t>type</t>
   </si>
@@ -125,6 +125,9 @@
     <t>2009</t>
   </si>
   <si>
+    <t>October 2021</t>
+  </si>
+  <si>
     <t>September 2021</t>
   </si>
   <si>
@@ -242,6 +245,9 @@
     <t>Palgrave Macmillan, London..</t>
   </si>
   <si>
+    <t>Forum for Macroeconomics and Macroeconomic Policies (FMM)</t>
+  </si>
+  <si>
     <t>23rd International Network for Economic Research (INFER)</t>
   </si>
   <si>
@@ -251,6 +257,9 @@
     <t>FALSE</t>
   </si>
   <si>
+    <t>Berlin, Germany</t>
+  </si>
+  <si>
     <t>Lisbon, Portugal</t>
   </si>
   <si>
@@ -260,7 +269,13 @@
     <t>TRUE</t>
   </si>
   <si>
+    <t>http://www.boeckler.de/pdf/v_2021_10_30_tomio.pdf</t>
+  </si>
+  <si>
     <t>http://bit.ly/bttomiocttyaslides</t>
+  </si>
+  <si>
+    <t>https://bttomio.github.io/slides/25thFMM/slides.html</t>
   </si>
   <si>
     <t>https://bttomio.github.io/slides/23rdINFER/slides.html</t>
@@ -399,25 +414,25 @@
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" t="n">
         <v>40.0</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J2" t="e">
         <v>#N/A</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L2" t="e">
         <v>#N/A</v>
@@ -444,7 +459,7 @@
         <v>#N/A</v>
       </c>
       <c r="T2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="U2" t="e">
         <v>#N/A</v>
@@ -467,25 +482,25 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" t="n">
         <v>8.0</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L3" t="e">
         <v>#N/A</v>
@@ -535,25 +550,25 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" t="n">
         <v>18.0</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L4" t="e">
         <v>#N/A</v>
@@ -603,25 +618,25 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" t="n">
         <v>4.0</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J5" t="e">
         <v>#N/A</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L5" t="e">
         <v>#N/A</v>
@@ -671,25 +686,25 @@
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" t="n">
         <v>10.0</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L6" t="e">
         <v>#N/A</v>
@@ -739,7 +754,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="e">
         <v>#N/A</v>
@@ -757,13 +772,13 @@
         <v>#N/A</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N7" t="e">
         <v>#N/A</v>
@@ -807,7 +822,7 @@
         <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" t="e">
         <v>#N/A</v>
@@ -834,25 +849,25 @@
         <v>#N/A</v>
       </c>
       <c r="N8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q8" t="s">
-        <v>81</v>
-      </c>
-      <c r="R8" t="e">
-        <v>#N/A</v>
+        <v>84</v>
+      </c>
+      <c r="R8" t="s">
+        <v>85</v>
       </c>
       <c r="S8" t="e">
         <v>#N/A</v>
       </c>
       <c r="T8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="U8" t="e">
         <v>#N/A</v>
@@ -875,7 +890,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" t="e">
         <v>#N/A</v>
@@ -902,16 +917,16 @@
         <v>#N/A</v>
       </c>
       <c r="N9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="R9" t="e">
         <v>#N/A</v>
@@ -920,7 +935,7 @@
         <v>#N/A</v>
       </c>
       <c r="T9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="U9" t="e">
         <v>#N/A</v>
@@ -931,19 +946,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="e">
-        <v>#N/A</v>
+      <c r="D10" t="s">
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" t="e">
         <v>#N/A</v>
@@ -969,17 +984,17 @@
       <c r="M10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q10" t="e">
-        <v>#N/A</v>
+      <c r="N10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>80</v>
       </c>
       <c r="R10" t="e">
         <v>#N/A</v>
@@ -987,8 +1002,8 @@
       <c r="S10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="T10" t="e">
-        <v>#N/A</v>
+      <c r="T10" t="s">
+        <v>89</v>
       </c>
       <c r="U10" t="e">
         <v>#N/A</v>
@@ -1002,10 +1017,10 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D11" t="e">
         <v>#N/A</v>
@@ -1070,7 +1085,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -1138,10 +1153,10 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" t="e">
         <v>#N/A</v>
@@ -1206,10 +1221,10 @@
         <v>24</v>
       </c>
       <c r="B14" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" t="e">
         <v>#N/A</v>
@@ -1274,10 +1289,10 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" t="e">
         <v>#N/A</v>
@@ -1334,6 +1349,74 @@
         <v>#N/A</v>
       </c>
       <c r="V15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V16" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/cv/data/pubs.xlsx
+++ b/cv/data/pubs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t xml:space="preserve">wp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomio, B. T., Cañón, C. S and Gerba, E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">British pound carry trade activity</t>
   </si>
   <si>
     <t xml:space="preserve">Carry Trade and Negative Policy Rates in Switzerland</t>
@@ -1094,11 +1100,11 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -1126,11 +1132,11 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -1162,7 +1168,7 @@
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -1190,7 +1196,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
@@ -1278,6 +1284,38 @@
       <c r="U16"/>
       <c r="V16"/>
     </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/cv/data/pubs.xlsx
+++ b/cv/data/pubs.xlsx
@@ -1,304 +1,305 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bttom\OneDrive - FURB\Documentos\GitHub\bttomio.github.io\cv\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552BD7EF-7BF5-4721-B7EF-DCB06D9C9E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">authors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">journal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place_published</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conf_loc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">annual_meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full_paper_link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git_repo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slides_link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cran_link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prpa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomio, B. T..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carry Trade in Developed and Developing Countries: A Granger-Causality Analysis with the Toda-Yamamoto Approach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Economics Bulletin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2154-2164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.accessecon.com/Pubs/EB/2020/Volume40/EB-20-V40-I3-P188.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://bit.ly/bttomiocttyaslides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understanding the Brazilian Demand Regime: A Kaleckian Approach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review of Keynesian Economics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">287-302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4337/roke.2020.02.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.4337/roke.2020.02.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amal, M. and Tomio, B. T..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institutional Distance and Brazilian Outward Foreign Direct Investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M&lt;!-- --&gt;@n&lt;!-- --&gt;@gement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78-101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3917/mana.181.0078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cairn.info/revue-management-2015-1-page-78.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amal, M., Tomio, B. T. and Raboch H..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Determinants of Foreign Direct Investment in Latin America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revista de Globalizacion, Competitividad y Gobernabilidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116-133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dialnet.unirioja.es/servlet/articulo?codigo=3720149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amal, M., Raboch H. and Tomio, B. T..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strategies and Determinants of Foreign Direct Investment (FDI) from Developing Countries: Case Study of Latin America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latin American Business Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73-94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1080/10978520903212532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tandfonline.com/doi/abs/10.1080/10978520903212532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">book-chapter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institutional Determinants of Outward Foreign Direct Investment from Emerging Economies: A Home-Country Perspective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://link.springer.com/chapter/10.1057/9781137446350_3#citeas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institutional Impacts on Firm Internationalization,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palgrave Macmillan, London..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomio, B. T. and Vallet, G..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carry Trade and Negative Policy Rates in Switzerland: Low-lying fog or storm?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forum for Macroeconomics and Macroeconomic Policies (FMM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berlin, Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.boeckler.de/pdf/v_2021_10_30_tomio.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bttomio.github.io/slides/25thFMM/slides.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23rd International Network for Economic Research (INFER)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lisbon, Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bttomio.github.io/slides/23rdINFER/slides.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Research Group (GdRE) on Money Banking and Finance, partnered with Banque de France and Laboratoire d’Economie de Dauphine (LEDa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bttomio.github.io/slides/37thGDRE/slides.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomio, B. T., Cañón, C. S and Gerba, E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">British pound carry trade activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carry Trade and Negative Policy Rates in Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The political economy of carry trade: The real economy got carried away in Switzerland and Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carry Trade and the Sorcerer's Apprentice Scenario in Brazil, Mexico, and Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomio, B. T. and Vallet G..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monetary Policy, Financialization and Inequality: carry trade and the rentier/worker conflict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vallet G., Tomio, B. T. and Schneider, N..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Better Off Alone? Euro Carry Trade and Reluctant Europeans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karamoko, H. and Tomio, B. T..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyse de la Synchronisation des Cycles: Le Cas de l'Union Économique et Monétaire Ouest Africaine (UEMOA)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>authors</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>place_published</t>
+  </si>
+  <si>
+    <t>conference</t>
+  </si>
+  <si>
+    <t>poster</t>
+  </si>
+  <si>
+    <t>conf_loc</t>
+  </si>
+  <si>
+    <t>annual_meeting</t>
+  </si>
+  <si>
+    <t>full_paper_link</t>
+  </si>
+  <si>
+    <t>git_repo</t>
+  </si>
+  <si>
+    <t>slides_link</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>cran_link</t>
+  </si>
+  <si>
+    <t>prpa</t>
+  </si>
+  <si>
+    <t>Tomio, B. T..</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>Carry Trade in Developed and Developing Countries: A Granger-Causality Analysis with the Toda-Yamamoto Approach</t>
+  </si>
+  <si>
+    <t>Economics Bulletin</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2154-2164</t>
+  </si>
+  <si>
+    <t>http://www.accessecon.com/Pubs/EB/2020/Volume40/EB-20-V40-I3-P188.pdf</t>
+  </si>
+  <si>
+    <t>http://bit.ly/bttomiocttyaslides</t>
+  </si>
+  <si>
+    <t>Understanding the Brazilian Demand Regime: A Kaleckian Approach</t>
+  </si>
+  <si>
+    <t>Review of Keynesian Economics</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>287-302</t>
+  </si>
+  <si>
+    <t>10.4337/roke.2020.02.08</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4337/roke.2020.02.08</t>
+  </si>
+  <si>
+    <t>Amal, M. and Tomio, B. T..</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>Institutional Distance and Brazilian Outward Foreign Direct Investment</t>
+  </si>
+  <si>
+    <t>M&lt;!-- --&gt;@n&lt;!-- --&gt;@gement</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78-101</t>
+  </si>
+  <si>
+    <t>10.3917/mana.181.0078</t>
+  </si>
+  <si>
+    <t>https://www.cairn.info/revue-management-2015-1-page-78.htm</t>
+  </si>
+  <si>
+    <t>Amal, M., Tomio, B. T. and Raboch H..</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>Determinants of Foreign Direct Investment in Latin America</t>
+  </si>
+  <si>
+    <t>Revista de Globalizacion, Competitividad y Gobernabilidad</t>
+  </si>
+  <si>
+    <t>116-133</t>
+  </si>
+  <si>
+    <t>https://dialnet.unirioja.es/servlet/articulo?codigo=3720149</t>
+  </si>
+  <si>
+    <t>Amal, M., Raboch H. and Tomio, B. T..</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>Strategies and Determinants of Foreign Direct Investment (FDI) from Developing Countries: Case Study of Latin America</t>
+  </si>
+  <si>
+    <t>Latin American Business Review</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>73-94</t>
+  </si>
+  <si>
+    <t>10.1080/10978520903212532</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/abs/10.1080/10978520903212532</t>
+  </si>
+  <si>
+    <t>book-chapter</t>
+  </si>
+  <si>
+    <t>Institutional Determinants of Outward Foreign Direct Investment from Emerging Economies: A Home-Country Perspective</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1057/9781137446350_3#citeas</t>
+  </si>
+  <si>
+    <t>Institutional Impacts on Firm Internationalization,</t>
+  </si>
+  <si>
+    <t>Palgrave Macmillan, London..</t>
+  </si>
+  <si>
+    <t>Tomio, B. T. and Vallet, G..</t>
+  </si>
+  <si>
+    <t>October 2021</t>
+  </si>
+  <si>
+    <t>Carry Trade and Negative Policy Rates in Switzerland: Low-lying fog or storm?</t>
+  </si>
+  <si>
+    <t>Forum for Macroeconomics and Macroeconomic Policies (FMM)</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>Berlin, Germany</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>http://www.boeckler.de/pdf/v_2021_10_30_tomio.pdf</t>
+  </si>
+  <si>
+    <t>https://bttomio.github.io/slides/25thFMM/slides.html</t>
+  </si>
+  <si>
+    <t>September 2021</t>
+  </si>
+  <si>
+    <t>23rd International Network for Economic Research (INFER)</t>
+  </si>
+  <si>
+    <t>Lisbon, Portugal</t>
+  </si>
+  <si>
+    <t>https://bttomio.github.io/slides/23rdINFER/slides.html</t>
+  </si>
+  <si>
+    <t>June 2021</t>
+  </si>
+  <si>
+    <t>European Research Group (GdRE) on Money Banking and Finance, partnered with Banque de France and Laboratoire d’Economie de Dauphine (LEDa)</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>https://bttomio.github.io/slides/37thGDRE/slides.html</t>
+  </si>
+  <si>
+    <t>wp</t>
+  </si>
+  <si>
+    <t>Carry Trade and Negative Policy Rates in Switzerland</t>
+  </si>
+  <si>
+    <t>Carry Trade and the Sorcerer's Apprentice Scenario in Brazil, Mexico, and Russia</t>
+  </si>
+  <si>
+    <t>Better Off Alone? Euro Carry Trade and Reluctant Europeans</t>
+  </si>
+  <si>
+    <t>Karamoko, H. and Tomio, B. T..</t>
+  </si>
+  <si>
+    <t>Analyse de la Synchronisation des Cycles: Le Cas de l'Union Économique et Monétaire Ouest Africaine (UEMOA)</t>
+  </si>
+  <si>
+    <t>British Pound Carry Trade Activity</t>
+  </si>
+  <si>
+    <t>The Political Economy of Carry Trade: The Real Economy Got Carried Away in Switzerland and Brazil</t>
+  </si>
+  <si>
+    <t>Vallet G. and Tomio, B. T..</t>
+  </si>
+  <si>
+    <t>Tomio, B. T., Cañón, C. and Gerba, E..</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -334,6 +335,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -615,14 +625,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -690,11 +702,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -709,7 +721,7 @@
       <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>40</v>
       </c>
       <c r="H2" t="s">
@@ -718,29 +730,18 @@
       <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="J2"/>
       <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
       <c r="T2" t="s">
         <v>30</v>
       </c>
-      <c r="U2"/>
-      <c r="V2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -755,7 +756,7 @@
       <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>8</v>
       </c>
       <c r="H3" t="s">
@@ -770,23 +771,12 @@
       <c r="K3" t="s">
         <v>36</v>
       </c>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -801,7 +791,7 @@
       <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>18</v>
       </c>
       <c r="H4" t="s">
@@ -816,23 +806,12 @@
       <c r="K4" t="s">
         <v>44</v>
       </c>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -847,7 +826,7 @@
       <c r="F5" t="s">
         <v>48</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
@@ -856,27 +835,15 @@
       <c r="I5" t="s">
         <v>49</v>
       </c>
-      <c r="J5"/>
       <c r="K5" t="s">
         <v>50</v>
       </c>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -891,7 +858,7 @@
       <c r="F6" t="s">
         <v>54</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>10</v>
       </c>
       <c r="H6" t="s">
@@ -906,23 +873,12 @@
       <c r="K6" t="s">
         <v>58</v>
       </c>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
@@ -934,11 +890,6 @@
       <c r="E7" t="s">
         <v>60</v>
       </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
       <c r="K7" t="s">
         <v>61</v>
       </c>
@@ -948,21 +899,12 @@
       <c r="M7" t="s">
         <v>63</v>
       </c>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
@@ -974,14 +916,6 @@
       <c r="E8" t="s">
         <v>66</v>
       </c>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
       <c r="N8" t="s">
         <v>67</v>
       </c>
@@ -997,18 +931,15 @@
       <c r="R8" t="s">
         <v>71</v>
       </c>
-      <c r="S8"/>
       <c r="T8" t="s">
         <v>72</v>
       </c>
-      <c r="U8"/>
-      <c r="V8"/>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
@@ -1020,14 +951,6 @@
       <c r="E9" t="s">
         <v>66</v>
       </c>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
       <c r="N9" t="s">
         <v>74</v>
       </c>
@@ -1040,19 +963,15 @@
       <c r="Q9" t="s">
         <v>70</v>
       </c>
-      <c r="R9"/>
-      <c r="S9"/>
       <c r="T9" t="s">
         <v>76</v>
       </c>
-      <c r="U9"/>
-      <c r="V9"/>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
@@ -1064,14 +983,6 @@
       <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
       <c r="N10" t="s">
         <v>78</v>
       </c>
@@ -1084,240 +995,96 @@
       <c r="Q10" t="s">
         <v>68</v>
       </c>
-      <c r="R10"/>
-      <c r="S10"/>
       <c r="T10" t="s">
         <v>80</v>
       </c>
-      <c r="U10"/>
-      <c r="V10"/>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>81</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11"/>
+        <v>90</v>
+      </c>
       <c r="E11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-    </row>
-    <row r="12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>81</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>64</v>
       </c>
-      <c r="D12"/>
       <c r="E12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-    </row>
-    <row r="13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>81</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13"/>
       <c r="E13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-    </row>
-    <row r="14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>81</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="D14"/>
       <c r="E14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-    </row>
-    <row r="15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>81</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15"/>
+        <v>89</v>
+      </c>
       <c r="E15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-    </row>
-    <row r="16">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>81</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16"/>
+        <v>85</v>
+      </c>
       <c r="E16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/cv/data/pubs.xlsx
+++ b/cv/data/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bttom\OneDrive - FURB\Documentos\GitHub\bttomio.github.io\cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552BD7EF-7BF5-4721-B7EF-DCB06D9C9E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADD2E6E-2BE6-4428-A40E-A364715DEF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
   <si>
     <t>type</t>
   </si>
@@ -241,18 +241,6 @@
     <t>https://bttomio.github.io/slides/25thFMM/slides.html</t>
   </si>
   <si>
-    <t>September 2021</t>
-  </si>
-  <si>
-    <t>23rd International Network for Economic Research (INFER)</t>
-  </si>
-  <si>
-    <t>Lisbon, Portugal</t>
-  </si>
-  <si>
-    <t>https://bttomio.github.io/slides/23rdINFER/slides.html</t>
-  </si>
-  <si>
     <t>June 2021</t>
   </si>
   <si>
@@ -293,6 +281,24 @@
   </si>
   <si>
     <t>Tomio, B. T., Cañón, C. and Gerba, E..</t>
+  </si>
+  <si>
+    <t>Tomio, B. T.</t>
+  </si>
+  <si>
+    <t>July 2023</t>
+  </si>
+  <si>
+    <t>Carry trade and the real economy: Switzerland and Brazil got carried away?</t>
+  </si>
+  <si>
+    <t>Florianópolis, Brazil</t>
+  </si>
+  <si>
+    <t>https://bttomio.github.io/slides/ESTE/ESTE.html</t>
+  </si>
+  <si>
+    <t>20th Time Series and Econometrics Meeting (ESTE)</t>
   </si>
 </sst>
 </file>
@@ -628,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,31 +914,28 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
         <v>68</v>
       </c>
       <c r="P8" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="Q8" t="s">
-        <v>70</v>
-      </c>
-      <c r="R8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T8" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -946,25 +949,28 @@
         <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
         <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O9" t="s">
         <v>68</v>
       </c>
       <c r="P9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q9" t="s">
         <v>70</v>
       </c>
+      <c r="R9" t="s">
+        <v>71</v>
+      </c>
       <c r="T9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -978,44 +984,44 @@
         <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
         <v>66</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O10" t="s">
         <v>68</v>
       </c>
       <c r="P10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q10" t="s">
         <v>68</v>
       </c>
       <c r="T10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1024,12 +1030,12 @@
         <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1038,12 +1044,12 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -1052,35 +1058,35 @@
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
